--- a/formatted/candidates/candidates-4/candidates-skill-ratings.xlsx
+++ b/formatted/candidates/candidates-4/candidates-skill-ratings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe.meade/Git/MarineMax/tcn.migration/formatted/candidates/candidates-4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA7F7FE-ECF3-8443-951A-46F283C723D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D131FAC-DF66-9843-87A6-83BF46AF387A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="31600" windowHeight="26320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="13">
   <si>
     <t>rating</t>
   </si>
@@ -74,12 +74,15 @@
   <si>
     <t/>
   </si>
+  <si>
+    <t>accessRightAssets.id</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +99,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -136,12 +146,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C666"/>
+  <dimension ref="A1:D666"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -466,9 +479,10 @@
     <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.5" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -478,8 +492,11 @@
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>4526432</v>
       </c>
@@ -489,8 +506,11 @@
       <c r="C2">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4519602</v>
       </c>
@@ -500,8 +520,11 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4554457</v>
       </c>
@@ -511,8 +534,11 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4561377</v>
       </c>
@@ -522,8 +548,11 @@
       <c r="C5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4559160</v>
       </c>
@@ -533,8 +562,11 @@
       <c r="C6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4558667</v>
       </c>
@@ -544,8 +576,11 @@
       <c r="C7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4551159</v>
       </c>
@@ -555,8 +590,11 @@
       <c r="C8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4551245</v>
       </c>
@@ -566,8 +604,11 @@
       <c r="C9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4559243</v>
       </c>
@@ -577,8 +618,11 @@
       <c r="C10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4541906</v>
       </c>
@@ -588,8 +632,11 @@
       <c r="C11" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4544849</v>
       </c>
@@ -599,8 +646,11 @@
       <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>4523259</v>
       </c>
@@ -610,8 +660,11 @@
       <c r="C13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4531154</v>
       </c>
@@ -621,8 +674,11 @@
       <c r="C14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>4527271</v>
       </c>
@@ -632,8 +688,11 @@
       <c r="C15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4532454</v>
       </c>
@@ -643,8 +702,11 @@
       <c r="C16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4523602</v>
       </c>
@@ -654,8 +716,11 @@
       <c r="C17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4524897</v>
       </c>
@@ -665,8 +730,11 @@
       <c r="C18">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>4520506</v>
       </c>
@@ -676,8 +744,11 @@
       <c r="C19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4541336</v>
       </c>
@@ -687,8 +758,11 @@
       <c r="C20" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>4534929</v>
       </c>
@@ -698,8 +772,11 @@
       <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4537894</v>
       </c>
@@ -709,8 +786,11 @@
       <c r="C22">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4531045</v>
       </c>
@@ -720,8 +800,11 @@
       <c r="C23" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4562191</v>
       </c>
@@ -731,8 +814,11 @@
       <c r="C24" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4545876</v>
       </c>
@@ -742,8 +828,11 @@
       <c r="C25" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4536308</v>
       </c>
@@ -753,8 +842,11 @@
       <c r="C26" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4544515</v>
       </c>
@@ -764,8 +856,11 @@
       <c r="C27" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4538644</v>
       </c>
@@ -775,8 +870,11 @@
       <c r="C28" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4560907</v>
       </c>
@@ -786,8 +884,11 @@
       <c r="C29" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4542340</v>
       </c>
@@ -797,8 +898,11 @@
       <c r="C30" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4557150</v>
       </c>
@@ -808,8 +912,11 @@
       <c r="C31" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4526214</v>
       </c>
@@ -819,8 +926,11 @@
       <c r="C32" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>4543719</v>
       </c>
@@ -830,8 +940,11 @@
       <c r="C33" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>4562522</v>
       </c>
@@ -841,8 +954,11 @@
       <c r="C34" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4533407</v>
       </c>
@@ -852,8 +968,11 @@
       <c r="C35">
         <v>25</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>4560267</v>
       </c>
@@ -863,8 +982,11 @@
       <c r="C36" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>4535944</v>
       </c>
@@ -874,8 +996,11 @@
       <c r="C37" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>4556946</v>
       </c>
@@ -885,8 +1010,11 @@
       <c r="C38" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>4562574</v>
       </c>
@@ -896,8 +1024,11 @@
       <c r="C39" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>4550238</v>
       </c>
@@ -907,8 +1038,11 @@
       <c r="C40" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>4528933</v>
       </c>
@@ -918,8 +1052,11 @@
       <c r="C41" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>4528699</v>
       </c>
@@ -929,8 +1066,11 @@
       <c r="C42" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>4531236</v>
       </c>
@@ -940,8 +1080,11 @@
       <c r="C43" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>4561719</v>
       </c>
@@ -951,8 +1094,11 @@
       <c r="C44">
         <v>18</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>4521597</v>
       </c>
@@ -962,8 +1108,11 @@
       <c r="C45" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>4561446</v>
       </c>
@@ -973,8 +1122,11 @@
       <c r="C46" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>4562054</v>
       </c>
@@ -984,8 +1136,11 @@
       <c r="C47" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>4562327</v>
       </c>
@@ -995,8 +1150,11 @@
       <c r="C48" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>4534925</v>
       </c>
@@ -1006,8 +1164,11 @@
       <c r="C49" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>4562316</v>
       </c>
@@ -1017,8 +1178,11 @@
       <c r="C50" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>4539949</v>
       </c>
@@ -1028,8 +1192,11 @@
       <c r="C51" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>4522978</v>
       </c>
@@ -1039,8 +1206,11 @@
       <c r="C52" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>4530200</v>
       </c>
@@ -1050,8 +1220,11 @@
       <c r="C53" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>4556507</v>
       </c>
@@ -1061,8 +1234,11 @@
       <c r="C54" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>4535527</v>
       </c>
@@ -1072,8 +1248,11 @@
       <c r="C55" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>4520273</v>
       </c>
@@ -1083,8 +1262,11 @@
       <c r="C56">
         <v>18</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>4541492</v>
       </c>
@@ -1094,8 +1276,11 @@
       <c r="C57" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>4535724</v>
       </c>
@@ -1105,8 +1290,11 @@
       <c r="C58" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>4549610</v>
       </c>
@@ -1116,8 +1304,11 @@
       <c r="C59" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>4544084</v>
       </c>
@@ -1127,8 +1318,11 @@
       <c r="C60" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>4559333</v>
       </c>
@@ -1138,8 +1332,11 @@
       <c r="C61" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>4528572</v>
       </c>
@@ -1149,8 +1346,11 @@
       <c r="C62" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>4520332</v>
       </c>
@@ -1160,8 +1360,11 @@
       <c r="C63" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>4536424</v>
       </c>
@@ -1171,8 +1374,11 @@
       <c r="C64" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>4551267</v>
       </c>
@@ -1182,8 +1388,11 @@
       <c r="C65" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>4560111</v>
       </c>
@@ -1193,8 +1402,11 @@
       <c r="C66" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>4550534</v>
       </c>
@@ -1204,8 +1416,11 @@
       <c r="C67" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>4537901</v>
       </c>
@@ -1215,8 +1430,11 @@
       <c r="C68" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>4560123</v>
       </c>
@@ -1226,8 +1444,11 @@
       <c r="C69" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>4531125</v>
       </c>
@@ -1237,8 +1458,11 @@
       <c r="C70" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>4536310</v>
       </c>
@@ -1248,8 +1472,11 @@
       <c r="C71">
         <v>18</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>4552582</v>
       </c>
@@ -1259,8 +1486,11 @@
       <c r="C72" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>4524561</v>
       </c>
@@ -1270,8 +1500,11 @@
       <c r="C73" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>4562165</v>
       </c>
@@ -1281,8 +1514,11 @@
       <c r="C74" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>4529398</v>
       </c>
@@ -1292,8 +1528,11 @@
       <c r="C75" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>4562272</v>
       </c>
@@ -1303,8 +1542,11 @@
       <c r="C76" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>4549753</v>
       </c>
@@ -1314,8 +1556,11 @@
       <c r="C77" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>4548362</v>
       </c>
@@ -1325,8 +1570,11 @@
       <c r="C78" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>4530463</v>
       </c>
@@ -1336,8 +1584,11 @@
       <c r="C79" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>4528541</v>
       </c>
@@ -1347,8 +1598,11 @@
       <c r="C80" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>4561723</v>
       </c>
@@ -1358,8 +1612,11 @@
       <c r="C81" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>4554262</v>
       </c>
@@ -1369,8 +1626,11 @@
       <c r="C82" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>4562415</v>
       </c>
@@ -1380,8 +1640,11 @@
       <c r="C83" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>4562354</v>
       </c>
@@ -1391,8 +1654,11 @@
       <c r="C84" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>4560011</v>
       </c>
@@ -1402,8 +1668,11 @@
       <c r="C85" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>4536656</v>
       </c>
@@ -1413,8 +1682,11 @@
       <c r="C86" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>4551612</v>
       </c>
@@ -1424,8 +1696,11 @@
       <c r="C87" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>4519213</v>
       </c>
@@ -1435,8 +1710,11 @@
       <c r="C88" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>4521775</v>
       </c>
@@ -1446,8 +1724,11 @@
       <c r="C89" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>4527940</v>
       </c>
@@ -1457,8 +1738,11 @@
       <c r="C90" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>4551029</v>
       </c>
@@ -1468,8 +1752,11 @@
       <c r="C91" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>4562321</v>
       </c>
@@ -1479,8 +1766,11 @@
       <c r="C92" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>4524613</v>
       </c>
@@ -1490,8 +1780,11 @@
       <c r="C93" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>4533383</v>
       </c>
@@ -1501,8 +1794,11 @@
       <c r="C94" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>4527927</v>
       </c>
@@ -1512,8 +1808,11 @@
       <c r="C95" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>4533003</v>
       </c>
@@ -1523,8 +1822,11 @@
       <c r="C96" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>4522264</v>
       </c>
@@ -1534,8 +1836,11 @@
       <c r="C97" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>4522307</v>
       </c>
@@ -1545,8 +1850,11 @@
       <c r="C98" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>4526312</v>
       </c>
@@ -1556,8 +1864,11 @@
       <c r="C99" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>4534587</v>
       </c>
@@ -1567,8 +1878,11 @@
       <c r="C100" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>4541317</v>
       </c>
@@ -1578,8 +1892,11 @@
       <c r="C101" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>4553557</v>
       </c>
@@ -1589,8 +1906,11 @@
       <c r="C102">
         <v>25</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>4554243</v>
       </c>
@@ -1600,8 +1920,11 @@
       <c r="C103" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>4533113</v>
       </c>
@@ -1611,8 +1934,11 @@
       <c r="C104" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>4562006</v>
       </c>
@@ -1622,8 +1948,11 @@
       <c r="C105" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>4526204</v>
       </c>
@@ -1633,8 +1962,11 @@
       <c r="C106" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>4545961</v>
       </c>
@@ -1644,8 +1976,11 @@
       <c r="C107" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>4555502</v>
       </c>
@@ -1655,8 +1990,11 @@
       <c r="C108" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>4542217</v>
       </c>
@@ -1666,8 +2004,11 @@
       <c r="C109">
         <v>25</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>4561996</v>
       </c>
@@ -1677,8 +2018,11 @@
       <c r="C110">
         <v>18</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>4535731</v>
       </c>
@@ -1688,8 +2032,11 @@
       <c r="C111" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>4562692</v>
       </c>
@@ -1699,8 +2046,11 @@
       <c r="C112" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>4530418</v>
       </c>
@@ -1710,8 +2060,11 @@
       <c r="C113" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>4532217</v>
       </c>
@@ -1721,8 +2074,11 @@
       <c r="C114" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>4538171</v>
       </c>
@@ -1732,8 +2088,11 @@
       <c r="C115" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>4561570</v>
       </c>
@@ -1743,8 +2102,11 @@
       <c r="C116">
         <v>25</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>4562185</v>
       </c>
@@ -1754,8 +2116,11 @@
       <c r="C117" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>4542732</v>
       </c>
@@ -1765,8 +2130,11 @@
       <c r="C118" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>4530016</v>
       </c>
@@ -1776,8 +2144,11 @@
       <c r="C119" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>4562578</v>
       </c>
@@ -1787,8 +2158,11 @@
       <c r="C120" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>4548228</v>
       </c>
@@ -1798,8 +2172,11 @@
       <c r="C121" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>4554998</v>
       </c>
@@ -1809,8 +2186,11 @@
       <c r="C122" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>4527899</v>
       </c>
@@ -1820,8 +2200,11 @@
       <c r="C123" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>4546532</v>
       </c>
@@ -1831,8 +2214,11 @@
       <c r="C124" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>4518930</v>
       </c>
@@ -1842,8 +2228,11 @@
       <c r="C125" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>4521228</v>
       </c>
@@ -1853,8 +2242,11 @@
       <c r="C126">
         <v>18</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>4553303</v>
       </c>
@@ -1864,8 +2256,11 @@
       <c r="C127" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>4531519</v>
       </c>
@@ -1875,8 +2270,11 @@
       <c r="C128" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>4554524</v>
       </c>
@@ -1886,8 +2284,11 @@
       <c r="C129" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>4542902</v>
       </c>
@@ -1897,8 +2298,11 @@
       <c r="C130">
         <v>25</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>4541029</v>
       </c>
@@ -1908,8 +2312,11 @@
       <c r="C131" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>4527462</v>
       </c>
@@ -1919,8 +2326,11 @@
       <c r="C132" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>4562594</v>
       </c>
@@ -1930,8 +2340,11 @@
       <c r="C133" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>4528863</v>
       </c>
@@ -1941,8 +2354,11 @@
       <c r="C134" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>4558067</v>
       </c>
@@ -1952,8 +2368,11 @@
       <c r="C135" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>4522728</v>
       </c>
@@ -1963,8 +2382,11 @@
       <c r="C136" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>4531434</v>
       </c>
@@ -1974,8 +2396,11 @@
       <c r="C137" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>4519870</v>
       </c>
@@ -1985,8 +2410,11 @@
       <c r="C138" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>4562124</v>
       </c>
@@ -1996,8 +2424,11 @@
       <c r="C139" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>4554439</v>
       </c>
@@ -2007,8 +2438,11 @@
       <c r="C140" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>4518927</v>
       </c>
@@ -2018,8 +2452,11 @@
       <c r="C141">
         <v>25</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>4527121</v>
       </c>
@@ -2029,8 +2466,11 @@
       <c r="C142" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>4562631</v>
       </c>
@@ -2040,8 +2480,11 @@
       <c r="C143" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>4543912</v>
       </c>
@@ -2051,8 +2494,11 @@
       <c r="C144" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>4562665</v>
       </c>
@@ -2062,8 +2508,11 @@
       <c r="C145" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>4522622</v>
       </c>
@@ -2073,8 +2522,11 @@
       <c r="C146" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>4538747</v>
       </c>
@@ -2084,8 +2536,11 @@
       <c r="C147" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>4531244</v>
       </c>
@@ -2095,8 +2550,11 @@
       <c r="C148" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>4540473</v>
       </c>
@@ -2106,8 +2564,11 @@
       <c r="C149" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>4562656</v>
       </c>
@@ -2117,8 +2578,11 @@
       <c r="C150" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>4524272</v>
       </c>
@@ -2128,8 +2592,11 @@
       <c r="C151" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>4556596</v>
       </c>
@@ -2139,8 +2606,11 @@
       <c r="C152" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>4541779</v>
       </c>
@@ -2150,8 +2620,11 @@
       <c r="C153" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>4541194</v>
       </c>
@@ -2161,8 +2634,11 @@
       <c r="C154" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>4519978</v>
       </c>
@@ -2172,8 +2648,11 @@
       <c r="C155" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>4562030</v>
       </c>
@@ -2183,8 +2662,11 @@
       <c r="C156" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>4562037</v>
       </c>
@@ -2194,8 +2676,11 @@
       <c r="C157" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>4549939</v>
       </c>
@@ -2205,8 +2690,11 @@
       <c r="C158" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>4561776</v>
       </c>
@@ -2216,8 +2704,11 @@
       <c r="C159" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>4531184</v>
       </c>
@@ -2227,8 +2718,11 @@
       <c r="C160" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>4526775</v>
       </c>
@@ -2238,8 +2732,11 @@
       <c r="C161" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>4556617</v>
       </c>
@@ -2249,8 +2746,11 @@
       <c r="C162" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>4519507</v>
       </c>
@@ -2260,8 +2760,11 @@
       <c r="C163" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>4536169</v>
       </c>
@@ -2271,8 +2774,11 @@
       <c r="C164" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>4521665</v>
       </c>
@@ -2282,8 +2788,11 @@
       <c r="C165" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>4522428</v>
       </c>
@@ -2293,8 +2802,11 @@
       <c r="C166" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>4554710</v>
       </c>
@@ -2304,8 +2816,11 @@
       <c r="C167" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>4537105</v>
       </c>
@@ -2315,8 +2830,11 @@
       <c r="C168" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>4519961</v>
       </c>
@@ -2326,8 +2844,11 @@
       <c r="C169" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>4530800</v>
       </c>
@@ -2337,8 +2858,11 @@
       <c r="C170" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>4530983</v>
       </c>
@@ -2348,8 +2872,11 @@
       <c r="C171" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>4550867</v>
       </c>
@@ -2359,8 +2886,11 @@
       <c r="C172" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>4548673</v>
       </c>
@@ -2370,8 +2900,11 @@
       <c r="C173">
         <v>25</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>4562713</v>
       </c>
@@ -2381,8 +2914,11 @@
       <c r="C174" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>4532080</v>
       </c>
@@ -2392,8 +2928,11 @@
       <c r="C175" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>4522698</v>
       </c>
@@ -2403,8 +2942,11 @@
       <c r="C176" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>4549957</v>
       </c>
@@ -2414,8 +2956,11 @@
       <c r="C177" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>4545748</v>
       </c>
@@ -2425,8 +2970,11 @@
       <c r="C178" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>4519522</v>
       </c>
@@ -2436,8 +2984,11 @@
       <c r="C179" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>4548583</v>
       </c>
@@ -2447,8 +2998,11 @@
       <c r="C180" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>4561858</v>
       </c>
@@ -2458,8 +3012,11 @@
       <c r="C181" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>4527469</v>
       </c>
@@ -2469,8 +3026,11 @@
       <c r="C182" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>4562135</v>
       </c>
@@ -2480,8 +3040,11 @@
       <c r="C183" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>4538383</v>
       </c>
@@ -2491,8 +3054,11 @@
       <c r="C184" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>4562133</v>
       </c>
@@ -2502,8 +3068,11 @@
       <c r="C185" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>4526656</v>
       </c>
@@ -2513,8 +3082,11 @@
       <c r="C186" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>4519812</v>
       </c>
@@ -2524,8 +3096,11 @@
       <c r="C187" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>4521170</v>
       </c>
@@ -2535,8 +3110,11 @@
       <c r="C188" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>4530896</v>
       </c>
@@ -2546,8 +3124,11 @@
       <c r="C189">
         <v>25</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>4542311</v>
       </c>
@@ -2557,8 +3138,11 @@
       <c r="C190" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>4522652</v>
       </c>
@@ -2568,8 +3152,11 @@
       <c r="C191" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>4562717</v>
       </c>
@@ -2579,8 +3166,11 @@
       <c r="C192">
         <v>18</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>4542851</v>
       </c>
@@ -2590,8 +3180,11 @@
       <c r="C193" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>4552649</v>
       </c>
@@ -2601,8 +3194,11 @@
       <c r="C194" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>4542168</v>
       </c>
@@ -2612,8 +3208,11 @@
       <c r="C195" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>4540550</v>
       </c>
@@ -2623,8 +3222,11 @@
       <c r="C196" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>4561979</v>
       </c>
@@ -2634,8 +3236,11 @@
       <c r="C197" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>4542446</v>
       </c>
@@ -2645,8 +3250,11 @@
       <c r="C198">
         <v>25</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>4541055</v>
       </c>
@@ -2656,8 +3264,11 @@
       <c r="C199" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>4519217</v>
       </c>
@@ -2667,8 +3278,11 @@
       <c r="C200" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D200">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>4519601</v>
       </c>
@@ -2678,8 +3292,11 @@
       <c r="C201" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>4544382</v>
       </c>
@@ -2689,8 +3306,11 @@
       <c r="C202" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>4562378</v>
       </c>
@@ -2700,8 +3320,11 @@
       <c r="C203">
         <v>18</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>4544630</v>
       </c>
@@ -2711,8 +3334,11 @@
       <c r="C204" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>4562242</v>
       </c>
@@ -2722,8 +3348,11 @@
       <c r="C205" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>4519224</v>
       </c>
@@ -2733,8 +3362,11 @@
       <c r="C206" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>4529265</v>
       </c>
@@ -2744,8 +3376,11 @@
       <c r="C207" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>4537977</v>
       </c>
@@ -2755,8 +3390,11 @@
       <c r="C208" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>4538125</v>
       </c>
@@ -2766,8 +3404,11 @@
       <c r="C209" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>4556266</v>
       </c>
@@ -2777,8 +3418,11 @@
       <c r="C210">
         <v>18</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>4552293</v>
       </c>
@@ -2788,8 +3432,11 @@
       <c r="C211" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>4519230</v>
       </c>
@@ -2799,8 +3446,11 @@
       <c r="C212" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>4523846</v>
       </c>
@@ -2810,8 +3460,11 @@
       <c r="C213" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>4522195</v>
       </c>
@@ -2821,8 +3474,11 @@
       <c r="C214" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>4519262</v>
       </c>
@@ -2832,8 +3488,11 @@
       <c r="C215" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>4534461</v>
       </c>
@@ -2843,8 +3502,11 @@
       <c r="C216" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D216">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>4551543</v>
       </c>
@@ -2854,8 +3516,11 @@
       <c r="C217" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>4539410</v>
       </c>
@@ -2865,8 +3530,11 @@
       <c r="C218" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>4544603</v>
       </c>
@@ -2876,8 +3544,11 @@
       <c r="C219" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>4562565</v>
       </c>
@@ -2887,8 +3558,11 @@
       <c r="C220">
         <v>18</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>4529239</v>
       </c>
@@ -2898,8 +3572,11 @@
       <c r="C221" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>4519687</v>
       </c>
@@ -2909,8 +3586,11 @@
       <c r="C222" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>4520155</v>
       </c>
@@ -2920,208 +3600,286 @@
       <c r="C223" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>4545055</v>
       </c>
       <c r="B224" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>4528764</v>
       </c>
       <c r="B225" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>4538256</v>
       </c>
       <c r="B226" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>4523766</v>
       </c>
       <c r="B227" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>4549777</v>
       </c>
       <c r="B228" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D228">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>4549797</v>
       </c>
       <c r="B229" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>4562458</v>
       </c>
       <c r="B230" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>4536774</v>
       </c>
       <c r="B231" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>4542062</v>
       </c>
       <c r="B232" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D232">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>4558659</v>
       </c>
       <c r="B233" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>4551249</v>
       </c>
       <c r="B234" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>4540336</v>
       </c>
       <c r="B235" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>4557823</v>
       </c>
       <c r="B236" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>4542629</v>
       </c>
       <c r="B237" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>4526971</v>
       </c>
       <c r="B238" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>4546212</v>
       </c>
       <c r="B239" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>4553854</v>
       </c>
       <c r="B240" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>4520178</v>
       </c>
       <c r="B241" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D241">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>4535434</v>
       </c>
       <c r="B242" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>4562503</v>
       </c>
       <c r="B243" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>4557473</v>
       </c>
       <c r="B244" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>4546220</v>
       </c>
       <c r="B245" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D245">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>4538661</v>
       </c>
       <c r="B246" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>4525906</v>
       </c>
       <c r="B247" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>4539636</v>
       </c>
       <c r="B248" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>4518934</v>
       </c>
@@ -3129,16 +3887,22 @@
         <v>5</v>
       </c>
       <c r="C249" s="2"/>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D249">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>4527108</v>
       </c>
       <c r="B250" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D250">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>4526936</v>
       </c>
@@ -3146,184 +3910,253 @@
         <v>5</v>
       </c>
       <c r="C251" s="2"/>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D251">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>4531358</v>
       </c>
       <c r="B252" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D252">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>4519892</v>
       </c>
       <c r="B253" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D253">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>4548393</v>
       </c>
       <c r="B254" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D254">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>4542894</v>
       </c>
       <c r="B255" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>4540567</v>
       </c>
       <c r="B256" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D256">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>4535534</v>
       </c>
       <c r="B257" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D257">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>4519970</v>
       </c>
       <c r="B258" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>4518935</v>
       </c>
       <c r="B259" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D259">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>4542285</v>
       </c>
       <c r="B260" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D260">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>4521988</v>
       </c>
       <c r="B261" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>4562550</v>
       </c>
       <c r="B262" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D262">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>4542436</v>
       </c>
       <c r="B263" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D263">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>4521060</v>
       </c>
       <c r="B264" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D264">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>4562738</v>
       </c>
       <c r="B265" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D265">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>4562734</v>
       </c>
       <c r="B266" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D266">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>4562750</v>
       </c>
       <c r="B267" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D267">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>4562795</v>
       </c>
       <c r="B268" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D268">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>4562797</v>
       </c>
       <c r="B269" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D269">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>4562804</v>
       </c>
       <c r="B270" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D270">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>4562818</v>
       </c>
       <c r="B271" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D271">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>4562819</v>
       </c>
       <c r="B272" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D272">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>4562832</v>
       </c>
       <c r="B273" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D273">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>4562891</v>
       </c>
@@ -3331,72 +4164,99 @@
         <v>3</v>
       </c>
       <c r="C274" s="2"/>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D274">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>4562974</v>
       </c>
       <c r="B275" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D275">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>4562987</v>
       </c>
       <c r="B276" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>4563026</v>
       </c>
       <c r="B277" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D277">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>4563035</v>
       </c>
       <c r="B278" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D278">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>4563048</v>
       </c>
       <c r="B279" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D279">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>4563060</v>
       </c>
       <c r="B280" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D280">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>4563061</v>
       </c>
       <c r="B281" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D281">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>4563062</v>
       </c>
       <c r="B282" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D282">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>4563080</v>
       </c>
@@ -3404,24 +4264,33 @@
         <v>5</v>
       </c>
       <c r="C283" s="2"/>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D283">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>4563089</v>
       </c>
       <c r="B284" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D284">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>4563094</v>
       </c>
       <c r="B285" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D285">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>4563117</v>
       </c>
@@ -3429,144 +4298,198 @@
         <v>5</v>
       </c>
       <c r="C286" s="2"/>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D286">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>4563128</v>
       </c>
       <c r="B287" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D287">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>4563133</v>
       </c>
       <c r="B288" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D288">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>4563155</v>
       </c>
       <c r="B289" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D289">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>4563168</v>
       </c>
       <c r="B290" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D290">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>4563204</v>
       </c>
       <c r="B291" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D291">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>4563218</v>
       </c>
       <c r="B292" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D292">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>4563263</v>
       </c>
       <c r="B293" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D293">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>4563267</v>
       </c>
       <c r="B294" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D294">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>4563271</v>
       </c>
       <c r="B295" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D295">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>4563279</v>
       </c>
       <c r="B296" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>4563297</v>
       </c>
       <c r="B297" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D297">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>4563323</v>
       </c>
       <c r="B298" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D298">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>4563324</v>
       </c>
       <c r="B299" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D299">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>4563338</v>
       </c>
       <c r="B300" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D300">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>4563356</v>
       </c>
       <c r="B301" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D301">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>4563386</v>
       </c>
       <c r="B302" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D302">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>4563408</v>
       </c>
       <c r="B303" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D303">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>4563421</v>
       </c>
@@ -3574,72 +4497,99 @@
         <v>5</v>
       </c>
       <c r="C304" s="2"/>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D304">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>4563440</v>
       </c>
       <c r="B305" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D305">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>4563443</v>
       </c>
       <c r="B306" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D306">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>4563466</v>
       </c>
       <c r="B307" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D307">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>4563483</v>
       </c>
       <c r="B308" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D308">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>4563493</v>
       </c>
       <c r="B309" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D309">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>4563496</v>
       </c>
       <c r="B310" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D310">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>4563501</v>
       </c>
       <c r="B311" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D311">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>4563515</v>
       </c>
       <c r="B312" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D312">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>4563517</v>
       </c>
@@ -3647,144 +4597,198 @@
         <v>5</v>
       </c>
       <c r="C313" s="2"/>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D313">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>4563526</v>
       </c>
       <c r="B314" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D314">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>4563550</v>
       </c>
       <c r="B315" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D315">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>4563564</v>
       </c>
       <c r="B316" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D316">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>4563568</v>
       </c>
       <c r="B317" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D317">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>4563595</v>
       </c>
       <c r="B318" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D318">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>4563637</v>
       </c>
       <c r="B319" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D319">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>4563677</v>
       </c>
       <c r="B320" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D320">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>4563713</v>
       </c>
       <c r="B321" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D321">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>4563723</v>
       </c>
       <c r="B322" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D322">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>4563728</v>
       </c>
       <c r="B323" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D323">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>4563729</v>
       </c>
       <c r="B324" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D324">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>4563736</v>
       </c>
       <c r="B325" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D325">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>4563744</v>
       </c>
       <c r="B326" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D326">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>4563770</v>
       </c>
       <c r="B327" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D327">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>4563833</v>
       </c>
       <c r="B328" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D328">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>4563850</v>
       </c>
       <c r="B329" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D329">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>4563872</v>
       </c>
       <c r="B330" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D330">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>4563876</v>
       </c>
@@ -3792,24 +4796,33 @@
         <v>3</v>
       </c>
       <c r="C331" s="2"/>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D331">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>4563882</v>
       </c>
       <c r="B332" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D332">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>4563900</v>
       </c>
       <c r="B333" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D333">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>4563911</v>
       </c>
@@ -3817,104 +4830,143 @@
         <v>5</v>
       </c>
       <c r="C334" s="2"/>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D334">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>4563913</v>
       </c>
       <c r="B335" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D335">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>4563918</v>
       </c>
       <c r="B336" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D336">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>4563919</v>
       </c>
       <c r="B337" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D337">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>4563943</v>
       </c>
       <c r="B338" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D338">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>4563945</v>
       </c>
       <c r="B339" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D339">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>4564004</v>
       </c>
       <c r="B340" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D340">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>4564038</v>
       </c>
       <c r="B341" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D341">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>4564050</v>
       </c>
       <c r="B342" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D342">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>4564058</v>
       </c>
       <c r="B343" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D343">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>4564065</v>
       </c>
       <c r="B344" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D344">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>4564088</v>
       </c>
       <c r="B345" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D345">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>4564096</v>
       </c>
       <c r="B346" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D346">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>4564110</v>
       </c>
@@ -3922,184 +4974,253 @@
         <v>5</v>
       </c>
       <c r="C347" s="2"/>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D347">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>4564147</v>
       </c>
       <c r="B348" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D348">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>4564156</v>
       </c>
       <c r="B349" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D349">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>4564169</v>
       </c>
       <c r="B350" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D350">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>4564172</v>
       </c>
       <c r="B351" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D351">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>4564174</v>
       </c>
       <c r="B352" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D352">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>4564180</v>
       </c>
       <c r="B353" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D353">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>4564184</v>
       </c>
       <c r="B354" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D354">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>4564200</v>
       </c>
       <c r="B355" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D355">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>4564214</v>
       </c>
       <c r="B356" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D356">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>4564228</v>
       </c>
       <c r="B357" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D357">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>4564237</v>
       </c>
       <c r="B358" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D358">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>4564242</v>
       </c>
       <c r="B359" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D359">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>4564324</v>
       </c>
       <c r="B360" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D360">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>4564350</v>
       </c>
       <c r="B361" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D361">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>4564357</v>
       </c>
       <c r="B362" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D362">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>4564400</v>
       </c>
       <c r="B363" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D363">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>4564408</v>
       </c>
       <c r="B364" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D364">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>4564420</v>
       </c>
       <c r="B365" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D365">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>4564432</v>
       </c>
       <c r="B366" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D366">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>4564449</v>
       </c>
       <c r="B367" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D367">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>4564458</v>
       </c>
       <c r="B368" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D368">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>4564466</v>
       </c>
       <c r="B369" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D369">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>4564516</v>
       </c>
@@ -4107,64 +5228,88 @@
         <v>5</v>
       </c>
       <c r="C370" s="2"/>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D370">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>4564535</v>
       </c>
       <c r="B371" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D371">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>4564544</v>
       </c>
       <c r="B372" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D372">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>4564546</v>
       </c>
       <c r="B373" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D373">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>4564549</v>
       </c>
       <c r="B374" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D374">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>4564556</v>
       </c>
       <c r="B375" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D375">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>4564580</v>
       </c>
       <c r="B376" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D376">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>4564590</v>
       </c>
       <c r="B377" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D377">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>4564596</v>
       </c>
@@ -4172,8 +5317,11 @@
         <v>3</v>
       </c>
       <c r="C378" s="2"/>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D378">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>4564679</v>
       </c>
@@ -4181,120 +5329,165 @@
         <v>5</v>
       </c>
       <c r="C379" s="2"/>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D379">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>4564698</v>
       </c>
       <c r="B380" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D380">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>4564700</v>
       </c>
       <c r="B381" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D381">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>4564740</v>
       </c>
       <c r="B382" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D382">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>4564759</v>
       </c>
       <c r="B383" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D383">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>4564785</v>
       </c>
       <c r="B384" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D384">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>4564802</v>
       </c>
       <c r="B385" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D385">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>4564807</v>
       </c>
       <c r="B386" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D386">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>4564846</v>
       </c>
       <c r="B387" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D387">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>4564882</v>
       </c>
       <c r="B388" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D388">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>4564891</v>
       </c>
       <c r="B389" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D389">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>4564905</v>
       </c>
       <c r="B390" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D390">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>4564932</v>
       </c>
       <c r="B391" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D391">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>4564933</v>
       </c>
       <c r="B392" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D392">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>4564936</v>
       </c>
       <c r="B393" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D393">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>4564954</v>
       </c>
@@ -4302,56 +5495,77 @@
         <v>5</v>
       </c>
       <c r="C394" s="2"/>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D394">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>4564961</v>
       </c>
       <c r="B395" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D395">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>4565020</v>
       </c>
       <c r="B396" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D396">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>4565081</v>
       </c>
       <c r="B397" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D397">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>4565087</v>
       </c>
       <c r="B398" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D398">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>4565090</v>
       </c>
       <c r="B399" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D399">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>4565092</v>
       </c>
       <c r="B400" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D400">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>4565132</v>
       </c>
@@ -4359,112 +5573,154 @@
         <v>5</v>
       </c>
       <c r="C401" s="2"/>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D401">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>4565175</v>
       </c>
       <c r="B402" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D402">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>4565179</v>
       </c>
       <c r="B403" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D403">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>4565183</v>
       </c>
       <c r="B404" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D404">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>4565196</v>
       </c>
       <c r="B405" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D405">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>4565225</v>
       </c>
       <c r="B406" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D406">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>4565258</v>
       </c>
       <c r="B407" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D407">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>4565281</v>
       </c>
       <c r="B408" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D408">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>4565303</v>
       </c>
       <c r="B409" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D409">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>4565354</v>
       </c>
       <c r="B410" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D410">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>4565370</v>
       </c>
       <c r="B411" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D411">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>4565377</v>
       </c>
       <c r="B412" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D412">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>4565415</v>
       </c>
       <c r="B413" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D413">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>4565470</v>
       </c>
       <c r="B414" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D414">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>4565486</v>
       </c>
@@ -4472,96 +5728,132 @@
         <v>5</v>
       </c>
       <c r="C415" s="2"/>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D415">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>4565487</v>
       </c>
       <c r="B416" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D416">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>4565488</v>
       </c>
       <c r="B417" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D417">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>4565532</v>
       </c>
       <c r="B418" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D418">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>4565583</v>
       </c>
       <c r="B419" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D419">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>4565608</v>
       </c>
       <c r="B420" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D420">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>4565624</v>
       </c>
       <c r="B421" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D421">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>4565652</v>
       </c>
       <c r="B422" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D422">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>4565701</v>
       </c>
       <c r="B423" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D423">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>4565729</v>
       </c>
       <c r="B424" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D424">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>4565733</v>
       </c>
       <c r="B425" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D425">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>4565748</v>
       </c>
       <c r="B426" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D426">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>4565753</v>
       </c>
@@ -4569,464 +5861,638 @@
         <v>3</v>
       </c>
       <c r="C427" s="2"/>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D427">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>4565761</v>
       </c>
       <c r="B428" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D428">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>4565762</v>
       </c>
       <c r="B429" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D429">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>4565793</v>
       </c>
       <c r="B430" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D430">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>4565803</v>
       </c>
       <c r="B431" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D431">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>4565844</v>
       </c>
       <c r="B432" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D432">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>4565880</v>
       </c>
       <c r="B433" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D433">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>4565885</v>
       </c>
       <c r="B434" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D434">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>4565912</v>
       </c>
       <c r="B435" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D435">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>4565929</v>
       </c>
       <c r="B436" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D436">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>4565934</v>
       </c>
       <c r="B437" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D437">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>4565935</v>
       </c>
       <c r="B438" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D438">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>4565942</v>
       </c>
       <c r="B439" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D439">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>4565957</v>
       </c>
       <c r="B440" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D440">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>4565977</v>
       </c>
       <c r="B441" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D441">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>4565989</v>
       </c>
       <c r="B442" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D442">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>4565993</v>
       </c>
       <c r="B443" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D443">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>4566014</v>
       </c>
       <c r="B444" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D444">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>4566019</v>
       </c>
       <c r="B445" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D445">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>4566026</v>
       </c>
       <c r="B446" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D446">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>4566057</v>
       </c>
       <c r="B447" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D447">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>4566071</v>
       </c>
       <c r="B448" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D448">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>4566108</v>
       </c>
       <c r="B449" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D449">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>4566114</v>
       </c>
       <c r="B450" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D450">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>4566133</v>
       </c>
       <c r="B451" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D451">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>4566137</v>
       </c>
       <c r="B452" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D452">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>4566144</v>
       </c>
       <c r="B453" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D453">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>4566162</v>
       </c>
       <c r="B454" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D454">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>4566196</v>
       </c>
       <c r="B455" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D455">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>4566205</v>
       </c>
       <c r="B456" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D456">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>4566222</v>
       </c>
       <c r="B457" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D457">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>4566226</v>
       </c>
       <c r="B458" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D458">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>4566229</v>
       </c>
       <c r="B459" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D459">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>4566233</v>
       </c>
       <c r="B460" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D460">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>4566235</v>
       </c>
       <c r="B461" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D461">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>4566268</v>
       </c>
       <c r="B462" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D462">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>4566281</v>
       </c>
       <c r="B463" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D463">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>4566340</v>
       </c>
       <c r="B464" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D464">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>4566343</v>
       </c>
       <c r="B465" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D465">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>4566373</v>
       </c>
       <c r="B466" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D466">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>4566381</v>
       </c>
       <c r="B467" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D467">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>4566384</v>
       </c>
       <c r="B468" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D468">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>4566406</v>
       </c>
       <c r="B469" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D469">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>4566414</v>
       </c>
       <c r="B470" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D470">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>4566418</v>
       </c>
       <c r="B471" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D471">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>4566440</v>
       </c>
       <c r="B472" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D472">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>4566478</v>
       </c>
       <c r="B473" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D473">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>4566489</v>
       </c>
       <c r="B474" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D474">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>4566499</v>
       </c>
       <c r="B475" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D475">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>4566501</v>
       </c>
       <c r="B476" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D476">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>4566551</v>
       </c>
       <c r="B477" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D477">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>4566566</v>
       </c>
       <c r="B478" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D478">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>4566587</v>
       </c>
       <c r="B479" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D479">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>4566594</v>
       </c>
       <c r="B480" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D480">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>4566609</v>
       </c>
       <c r="B481" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D481">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>4566607</v>
       </c>
       <c r="B482" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D482">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>4566612</v>
       </c>
       <c r="B483" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D483">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>4566617</v>
       </c>
       <c r="B484" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D484">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>4566698</v>
       </c>
@@ -5034,112 +6500,154 @@
         <v>5</v>
       </c>
       <c r="C485" s="2"/>
-    </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D485">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>4566714</v>
       </c>
       <c r="B486" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D486">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>4566729</v>
       </c>
       <c r="B487" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D487">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>4566732</v>
       </c>
       <c r="B488" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D488">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>4566742</v>
       </c>
       <c r="B489" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D489">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>4566743</v>
       </c>
       <c r="B490" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D490">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>4566746</v>
       </c>
       <c r="B491" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D491">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>4566774</v>
       </c>
       <c r="B492" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D492">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>4566783</v>
       </c>
       <c r="B493" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D493">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>4566808</v>
       </c>
       <c r="B494" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D494">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>4566810</v>
       </c>
       <c r="B495" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D495">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>4566814</v>
       </c>
       <c r="B496" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D496">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>4566815</v>
       </c>
       <c r="B497" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D497">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>4566829</v>
       </c>
       <c r="B498" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D498">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>4566860</v>
       </c>
@@ -5147,72 +6655,99 @@
         <v>5</v>
       </c>
       <c r="C499" s="2"/>
-    </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D499">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>4566865</v>
       </c>
       <c r="B500" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D500">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>4566893</v>
       </c>
       <c r="B501" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D501">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>4566950</v>
       </c>
       <c r="B502" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D502">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>4566978</v>
       </c>
       <c r="B503" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D503">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>4566989</v>
       </c>
       <c r="B504" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D504">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>4566990</v>
       </c>
       <c r="B505" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D505">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>4567064</v>
       </c>
       <c r="B506" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D506">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>4567068</v>
       </c>
       <c r="B507" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D507">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>4567073</v>
       </c>
@@ -5220,8 +6755,11 @@
         <v>7</v>
       </c>
       <c r="C508" s="2"/>
-    </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D508">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>4567090</v>
       </c>
@@ -5229,64 +6767,88 @@
         <v>5</v>
       </c>
       <c r="C509" s="2"/>
-    </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D509">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>4567095</v>
       </c>
       <c r="B510" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D510">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>4567140</v>
       </c>
       <c r="B511" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D511">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>4567158</v>
       </c>
       <c r="B512" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D512">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>4567159</v>
       </c>
       <c r="B513" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D513">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>4567174</v>
       </c>
       <c r="B514" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D514">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>4567175</v>
       </c>
       <c r="B515" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D515">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>4567187</v>
       </c>
       <c r="B516" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D516">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>4567191</v>
       </c>
@@ -5294,88 +6856,121 @@
         <v>7</v>
       </c>
       <c r="C517" s="2"/>
-    </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D517">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>4567199</v>
       </c>
       <c r="B518" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D518">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>4567213</v>
       </c>
       <c r="B519" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D519">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>4567223</v>
       </c>
       <c r="B520" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D520">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>4567226</v>
       </c>
       <c r="B521" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D521">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>4567275</v>
       </c>
       <c r="B522" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D522">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>4567285</v>
       </c>
       <c r="B523" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D523">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>4567307</v>
       </c>
       <c r="B524" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D524">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>4567309</v>
       </c>
       <c r="B525" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D525">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>4567352</v>
       </c>
       <c r="B526" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D526">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>4567377</v>
       </c>
       <c r="B527" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D527">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>4567439</v>
       </c>
@@ -5383,112 +6978,154 @@
         <v>5</v>
       </c>
       <c r="C528" s="2"/>
-    </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D528">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>4567440</v>
       </c>
       <c r="B529" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D529">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>4567458</v>
       </c>
       <c r="B530" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D530">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>4567469</v>
       </c>
       <c r="B531" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D531">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>4567475</v>
       </c>
       <c r="B532" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D532">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>4567487</v>
       </c>
       <c r="B533" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D533">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>4567491</v>
       </c>
       <c r="B534" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D534">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>4567531</v>
       </c>
       <c r="B535" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D535">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>4567537</v>
       </c>
       <c r="B536" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D536">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>4567557</v>
       </c>
       <c r="B537" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D537">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>4567564</v>
       </c>
       <c r="B538" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D538">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>4567578</v>
       </c>
       <c r="B539" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D539">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>4567597</v>
       </c>
       <c r="B540" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D540">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>4567620</v>
       </c>
       <c r="B541" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D541">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>4567632</v>
       </c>
@@ -5496,24 +7133,33 @@
         <v>5</v>
       </c>
       <c r="C542" s="2"/>
-    </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D542">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>4567639</v>
       </c>
       <c r="B543" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D543">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>4567666</v>
       </c>
       <c r="B544" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D544">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>4567702</v>
       </c>
@@ -5521,24 +7167,33 @@
         <v>4</v>
       </c>
       <c r="C545" s="2"/>
-    </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D545">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>4567720</v>
       </c>
       <c r="B546" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D546">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>4567731</v>
       </c>
       <c r="B547" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D547">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>4567734</v>
       </c>
@@ -5546,88 +7201,121 @@
         <v>5</v>
       </c>
       <c r="C548" s="2"/>
-    </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D548">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>4567751</v>
       </c>
       <c r="B549" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D549">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>4567761</v>
       </c>
       <c r="B550" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D550">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>4567781</v>
       </c>
       <c r="B551" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D551">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>4567822</v>
       </c>
       <c r="B552" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D552">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>4567837</v>
       </c>
       <c r="B553" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D553">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>4567838</v>
       </c>
       <c r="B554" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D554">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>4567841</v>
       </c>
       <c r="B555" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D555">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>4567853</v>
       </c>
       <c r="B556" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D556">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>4567897</v>
       </c>
       <c r="B557" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D557">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>4567911</v>
       </c>
       <c r="B558" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D558">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>4567912</v>
       </c>
@@ -5635,40 +7323,55 @@
         <v>7</v>
       </c>
       <c r="C559" s="2"/>
-    </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D559">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>4567914</v>
       </c>
       <c r="B560" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D560">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>4567924</v>
       </c>
       <c r="B561" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D561">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>4567936</v>
       </c>
       <c r="B562" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D562">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>4567944</v>
       </c>
       <c r="B563" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D563">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>4567960</v>
       </c>
@@ -5676,56 +7379,77 @@
         <v>5</v>
       </c>
       <c r="C564" s="2"/>
-    </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D564">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>4567967</v>
       </c>
       <c r="B565" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D565">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>4567995</v>
       </c>
       <c r="B566" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D566">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>4568003</v>
       </c>
       <c r="B567" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D567">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>4568013</v>
       </c>
       <c r="B568" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D568">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>4568023</v>
       </c>
       <c r="B569" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D569">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>4568024</v>
       </c>
       <c r="B570" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D570">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>4568027</v>
       </c>
@@ -5733,16 +7457,22 @@
         <v>5</v>
       </c>
       <c r="C571" s="2"/>
-    </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D571">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>4568032</v>
       </c>
       <c r="B572" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D572">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>4568050</v>
       </c>
@@ -5750,56 +7480,77 @@
         <v>5</v>
       </c>
       <c r="C573" s="2"/>
-    </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D573">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>4568054</v>
       </c>
       <c r="B574" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D574">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>4568062</v>
       </c>
       <c r="B575" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D575">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>4568118</v>
       </c>
       <c r="B576" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D576">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>4568128</v>
       </c>
       <c r="B577" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D577">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>4568152</v>
       </c>
       <c r="B578" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D578">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>4568153</v>
       </c>
       <c r="B579" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D579">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>4568154</v>
       </c>
@@ -5807,24 +7558,33 @@
         <v>5</v>
       </c>
       <c r="C580" s="2"/>
-    </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D580">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>4568158</v>
       </c>
       <c r="B581" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D581">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>4568188</v>
       </c>
       <c r="B582" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D582">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>4568246</v>
       </c>
@@ -5832,88 +7592,121 @@
         <v>5</v>
       </c>
       <c r="C583" s="2"/>
-    </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D583">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>4568291</v>
       </c>
       <c r="B584" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D584">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>4568319</v>
       </c>
       <c r="B585" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D585">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>4568324</v>
       </c>
       <c r="B586" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D586">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>4568361</v>
       </c>
       <c r="B587" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D587">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>4568420</v>
       </c>
       <c r="B588" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D588">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>4568458</v>
       </c>
       <c r="B589" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D589">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>4568469</v>
       </c>
       <c r="B590" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D590">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>4568476</v>
       </c>
       <c r="B591" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D591">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>4568481</v>
       </c>
       <c r="B592" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D592">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>4568499</v>
       </c>
       <c r="B593" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D593">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>4568527</v>
       </c>
@@ -5921,40 +7714,55 @@
         <v>5</v>
       </c>
       <c r="C594" s="2"/>
-    </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D594">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>4568580</v>
       </c>
       <c r="B595" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D595">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>4568589</v>
       </c>
       <c r="B596" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D596">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>4568603</v>
       </c>
       <c r="B597" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D597">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>4568643</v>
       </c>
       <c r="B598" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D598">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>4568665</v>
       </c>
@@ -5962,48 +7770,66 @@
         <v>5</v>
       </c>
       <c r="C599" s="2"/>
-    </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D599">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>4568681</v>
       </c>
       <c r="B600" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D600">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>4568688</v>
       </c>
       <c r="B601" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D601">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>4568694</v>
       </c>
       <c r="B602" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D602">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>4568699</v>
       </c>
       <c r="B603" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D603">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>4568702</v>
       </c>
       <c r="B604" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D604">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>4568726</v>
       </c>
@@ -6011,8 +7837,11 @@
         <v>3</v>
       </c>
       <c r="C605" s="2"/>
-    </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D605">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>4568768</v>
       </c>
@@ -6020,56 +7849,77 @@
         <v>4</v>
       </c>
       <c r="C606" s="2"/>
-    </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D606">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A607">
         <v>4568776</v>
       </c>
       <c r="B607" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D607">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>4568778</v>
       </c>
       <c r="B608" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D608">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A609">
         <v>4568790</v>
       </c>
       <c r="B609" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D609">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A610">
         <v>4568865</v>
       </c>
       <c r="B610" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D610">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A611">
         <v>4568872</v>
       </c>
       <c r="B611" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D611">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A612">
         <v>4568886</v>
       </c>
       <c r="B612" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D612">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A613">
         <v>4568889</v>
       </c>
@@ -6077,24 +7927,33 @@
         <v>5</v>
       </c>
       <c r="C613" s="2"/>
-    </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D613">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A614">
         <v>4568891</v>
       </c>
       <c r="B614" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D614">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A615">
         <v>4568915</v>
       </c>
       <c r="B615" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D615">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A616">
         <v>4568917</v>
       </c>
@@ -6102,96 +7961,132 @@
         <v>3</v>
       </c>
       <c r="C616" s="2"/>
-    </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D616">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A617">
         <v>4568919</v>
       </c>
       <c r="B617" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D617">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A618">
         <v>4568959</v>
       </c>
       <c r="B618" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D618">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A619">
         <v>4568961</v>
       </c>
       <c r="B619" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D619">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A620">
         <v>4568977</v>
       </c>
       <c r="B620" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D620">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A621">
         <v>4569006</v>
       </c>
       <c r="B621" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D621">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>4569008</v>
       </c>
       <c r="B622" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D622">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A623">
         <v>4569015</v>
       </c>
       <c r="B623" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D623">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A624">
         <v>4569047</v>
       </c>
       <c r="B624" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D624">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A625">
         <v>4569059</v>
       </c>
       <c r="B625" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D625">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A626">
         <v>4569092</v>
       </c>
       <c r="B626" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D626">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A627">
         <v>4569095</v>
       </c>
       <c r="B627" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D627">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A628">
         <v>4569100</v>
       </c>
@@ -6199,56 +8094,77 @@
         <v>5</v>
       </c>
       <c r="C628" s="2"/>
-    </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D628">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A629">
         <v>4569106</v>
       </c>
       <c r="B629" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D629">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A630">
         <v>4569166</v>
       </c>
       <c r="B630" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D630">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A631">
         <v>4569194</v>
       </c>
       <c r="B631" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D631">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A632">
         <v>4569238</v>
       </c>
       <c r="B632" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D632">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A633">
         <v>4569239</v>
       </c>
       <c r="B633" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D633">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A634">
         <v>4569263</v>
       </c>
       <c r="B634" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D634">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A635">
         <v>4569278</v>
       </c>
@@ -6256,40 +8172,55 @@
         <v>5</v>
       </c>
       <c r="C635" s="2"/>
-    </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D635">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A636">
         <v>4569287</v>
       </c>
       <c r="B636" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D636">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A637">
         <v>4569323</v>
       </c>
       <c r="B637" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D637">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A638">
         <v>4569339</v>
       </c>
       <c r="B638" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D638">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A639">
         <v>4569356</v>
       </c>
       <c r="B639" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D639">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A640">
         <v>4569408</v>
       </c>
@@ -6297,128 +8228,176 @@
         <v>3</v>
       </c>
       <c r="C640" s="2"/>
-    </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D640">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A641">
         <v>4569434</v>
       </c>
       <c r="B641" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D641">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A642">
         <v>4569444</v>
       </c>
       <c r="B642" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D642">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A643">
         <v>4569522</v>
       </c>
       <c r="B643" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D643">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A644">
         <v>4569543</v>
       </c>
       <c r="B644" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D644">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A645">
         <v>4569571</v>
       </c>
       <c r="B645" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D645">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A646">
         <v>4569574</v>
       </c>
       <c r="B646" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D646">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A647">
         <v>4569606</v>
       </c>
       <c r="B647" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D647">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A648">
         <v>4569612</v>
       </c>
       <c r="B648" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D648">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="649" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A649">
         <v>4569639</v>
       </c>
       <c r="B649" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D649">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A650">
         <v>4569642</v>
       </c>
       <c r="B650" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D650">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A651">
         <v>4569646</v>
       </c>
       <c r="B651" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D651">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A652">
         <v>4569673</v>
       </c>
       <c r="B652" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D652">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A653">
         <v>4569721</v>
       </c>
       <c r="B653" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D653">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A654">
         <v>4569728</v>
       </c>
       <c r="B654" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D654">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A655">
         <v>4569747</v>
       </c>
       <c r="B655" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D655">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A656">
         <v>4569753</v>
       </c>
@@ -6426,89 +8405,121 @@
         <v>7</v>
       </c>
       <c r="C656" s="2"/>
-    </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D656">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="657" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A657">
         <v>4569796</v>
       </c>
       <c r="B657" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D657">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="658" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A658">
         <v>4569817</v>
       </c>
       <c r="B658" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D658">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A659">
         <v>4569829</v>
       </c>
       <c r="B659" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D659">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A660">
         <v>4569837</v>
       </c>
       <c r="B660" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D660">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A661">
         <v>4569876</v>
       </c>
       <c r="B661" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D661">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A662">
         <v>4569877</v>
       </c>
       <c r="B662" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D662">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A663">
         <v>4569881</v>
       </c>
       <c r="B663" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D663">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A664">
         <v>4569885</v>
       </c>
       <c r="B664" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D664">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A665">
         <v>4569989</v>
       </c>
       <c r="B665" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D665">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="666" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A666">
         <v>4570010</v>
       </c>
       <c r="B666" t="s">
         <v>6</v>
       </c>
+      <c r="D666">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C666" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
